--- a/outputFiles/teacher.xlsx
+++ b/outputFiles/teacher.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,47 +402,27 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>T003</v>
+        <v>T002</v>
       </c>
       <c r="B2" t="str">
-        <v>gagan malshan</v>
+        <v>Kithmini de silva</v>
       </c>
       <c r="C2" t="str">
-        <v>52projectsliit@gmail.com</v>
+        <v>vihangamalshan12346@gmail.com</v>
       </c>
       <c r="D2" t="str">
-        <v>980740676V</v>
+        <v>980740666V</v>
       </c>
       <c r="E2" t="str">
         <v>2</v>
       </c>
       <c r="F2" t="str">
-        <v>Good teacher</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>T002</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Kithmini de silva</v>
-      </c>
-      <c r="C3" t="str">
-        <v>vihangamalshan12346@gmail.com</v>
-      </c>
-      <c r="D3" t="str">
-        <v>980740666V</v>
-      </c>
-      <c r="E3" t="str">
-        <v>2</v>
-      </c>
-      <c r="F3" t="str">
         <v>new teacher</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F2"/>
   </ignoredErrors>
 </worksheet>
 </file>